--- a/data/rem/template.xlsx
+++ b/data/rem/template.xlsx
@@ -12,11 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30" count="57">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>mapping (Y/N)</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
@@ -38,9 +41,15 @@
     <t>photo</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>序号 (选填)</t>
   </si>
   <si>
+    <t>是否显示在地图上 (Y/N)</t>
+  </si>
+  <si>
     <t>城市 (选填)</t>
   </si>
   <si>
@@ -62,6 +71,12 @@
     <t>图片网址 (选填)</t>
   </si>
   <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>北京市</t>
   </si>
   <si>
@@ -81,6 +96,12 @@
   </si>
   <si>
     <t>http://photo.weibo.com/1650866110/albums/detail/album_id/3506893533043279#!/mode/2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>500万</t>
   </si>
 </sst>
 </file>
@@ -195,8 +216,12 @@
       <c t="s" s="1" r="H1">
         <v>7</v>
       </c>
-      <c s="1" r="I1"/>
-      <c s="1" r="J1"/>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
       <c s="1" r="K1"/>
       <c s="1" r="L1"/>
       <c s="1" r="M1"/>
@@ -210,34 +235,39 @@
       <c s="1" r="U1"/>
       <c s="1" r="V1"/>
       <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c t="s" s="1" r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c t="s" s="1" r="F2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c t="s" s="1" r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c t="s" s="1" r="H2">
-        <v>15</v>
-      </c>
-      <c s="1" r="I2"/>
-      <c s="1" r="J2"/>
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="I2">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="J2">
+        <v>19</v>
+      </c>
       <c s="1" r="K2"/>
       <c s="1" r="L2"/>
       <c s="1" r="M2"/>
@@ -251,31 +281,38 @@
       <c s="1" r="U2"/>
       <c s="1" r="V2"/>
       <c s="1" r="W2"/>
+      <c s="1" r="X2"/>
     </row>
     <row r="3">
       <c s="2" r="A3">
         <v>1</v>
       </c>
       <c t="s" r="B3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c t="s" r="C3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c t="s" r="D3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c t="s" r="E3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c t="s" r="F3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c t="s" r="G3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c t="s" r="H3">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c t="s" r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>5000</v>
       </c>
     </row>
     <row r="4">
@@ -610,8 +647,12 @@
       <c t="s" s="1" r="H1">
         <v>7</v>
       </c>
-      <c s="1" r="I1"/>
-      <c s="1" r="J1"/>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
       <c s="1" r="K1"/>
       <c s="1" r="L1"/>
       <c s="1" r="M1"/>
@@ -625,34 +666,39 @@
       <c s="1" r="U1"/>
       <c s="1" r="V1"/>
       <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
     </row>
     <row r="2">
       <c t="s" s="1" r="A2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c t="s" s="1" r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c t="s" s="1" r="F2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c t="s" s="1" r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c t="s" s="1" r="H2">
-        <v>15</v>
-      </c>
-      <c s="1" r="I2"/>
-      <c s="1" r="J2"/>
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="I2">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="J2">
+        <v>19</v>
+      </c>
       <c s="1" r="K2"/>
       <c s="1" r="L2"/>
       <c s="1" r="M2"/>
@@ -666,31 +712,38 @@
       <c s="1" r="U2"/>
       <c s="1" r="V2"/>
       <c s="1" r="W2"/>
+      <c s="1" r="X2"/>
     </row>
     <row r="3">
       <c s="2" r="A3">
         <v>1</v>
       </c>
       <c t="s" r="B3">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c t="s" r="C3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c t="s" r="D3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c t="s" r="E3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c t="s" r="F3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c t="s" r="G3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c t="s" r="H3">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c t="s" r="I3">
+        <v>27</v>
+      </c>
+      <c t="s" r="J3">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
